--- a/intefaz/personas.xlsx
+++ b/intefaz/personas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,111 +461,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lucia</t>
+          <t>abi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7896</t>
+          <t>789</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dfa</t>
+          <t>25072005abigail@gmail.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>adfa</t>
+          <t>938755899</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>adfa</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>adfa</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>enana</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>963</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>laila@gmail.com</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>12/3/7</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>carlos</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>963</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>carlos@gmail.com</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>789456123</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>12/10/12</t>
+          <t>25/07/2005</t>
         </is>
       </c>
     </row>

--- a/intefaz/personas.xlsx
+++ b/intefaz/personas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>julio</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25072005abigail@gmail.com</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>938755899</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3/10/23</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/intefaz/personas.xlsx
+++ b/intefaz/personas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,43 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>eli</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>eligonzalescastro27@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>944898588</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/intefaz/personas.xlsx
+++ b/intefaz/personas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,8 @@
         </is>
       </c>
     </row>
+    <row r="5"/>
+    <row r="6"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/intefaz/personas.xlsx
+++ b/intefaz/personas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>abi</t>
+          <t>yeremi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>7889</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,91 +486,15 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/07/2005</t>
+          <t>04/10/2023</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>julio</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25072005abigail@gmail.com</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>938755899</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3/10/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>eli</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1235</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>eligonzalescastro27@gmail.com</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>944898588</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>04/10/2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/intefaz/personas.xlsx
+++ b/intefaz/personas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,8 +569,43 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6"/>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>afda</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adfa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>afd</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25072005abigail@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>adf</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>adf</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>adf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/intefaz/personas.xlsx
+++ b/intefaz/personas.xlsx
@@ -461,17 +461,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>yeremi</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7889</t>
+          <t>789</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/10/2023</t>
+          <t>25/07/2005</t>
         </is>
       </c>
     </row>

--- a/intefaz/personas.xlsx
+++ b/intefaz/personas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Julia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25072005abigail@gmail.com</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>938755899</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>25/07/2005</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/intefaz/personas.xlsx
+++ b/intefaz/personas.xlsx
@@ -461,12 +461,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Julia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -498,27 +498,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Julia</t>
+          <t>eli</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>123</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25072005abigail@gmail.com</t>
+          <t>eligonzalescastro27@gmail.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>938755899</t>
+          <t>944898588</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/07/2005</t>
+          <t>05/10/2023</t>
         </is>
       </c>
     </row>
